--- a/만들고 싶은 게임 기획서와 기타등등/범죄특별반/기획서/범죄특별반 기획서.xlsx
+++ b/만들고 싶은 게임 기획서와 기타등등/범죄특별반/기획서/범죄특별반 기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\만들고 싶은 게임 기획서와 기타등등\범죄특별반\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E039E90-FEBE-4F6D-A940-39B912D1F8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8327C21-415A-4A3E-BB4D-B92DE5E6465D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E453CFD3-EC8D-4505-B1A5-7268F8E4BD47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>이 게임을 만들려는 이유</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,46 @@
   </si>
   <si>
     <t>[컨셉과 스토리]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각자의 사연으로 인해 약간의 문제가 있는 각각의 엘리트 베테량 형사들. 그들을 따로 모아, 강력범죄 중에도 잔혹 무도한 강력범죄를 맡도록 지시한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그들은 사건을 해결하지 못하면 경찰 옷을 벗어야 하는 상황이라는 것을 통보받게된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그렇게 모인 다섯 형사는 사건을 해결하면서, 그 사건들이 어쩐지 자신들의 트라우마를 건들이는 것을 느낀다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그들은 과연, 무사히 사건들을 해결하고, 경찰로써 남을 수 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 특출난 분야가 돋보이는 형사들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트라우마, 문제 같은 것이 있는, 일명 나사 하나씩 빠져있는 사람들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한민국 기반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 미제 사건이나, 강력범죄를 모티브로한 사건들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[플레이 스토리]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,19 +368,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE7515B-77AC-45E9-9FEB-8E31FB3490E5}">
-  <dimension ref="B2:W25"/>
+  <dimension ref="B2:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -699,7 +739,7 @@
       <c r="K5" s="6"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
@@ -717,7 +757,7 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
@@ -751,7 +791,7 @@
       <c r="O8" s="6"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2"/>
@@ -774,7 +814,7 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
@@ -797,7 +837,7 @@
       <c r="T11" s="6"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
@@ -823,7 +863,7 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
@@ -855,7 +895,7 @@
       <c r="W14" s="6"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="2"/>
@@ -880,34 +920,17 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7" t="s">
+      <c r="K17" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="8"/>
+      <c r="V17" s="7"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
@@ -934,7 +957,7 @@
       <c r="V18" s="6"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="2"/>
@@ -958,35 +981,20 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="H21" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7" t="s">
+      <c r="O21" t="s">
         <v>27</v>
       </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="8"/>
+      <c r="U21" s="7"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1016,6 +1024,166 @@
         <v>31</v>
       </c>
     </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C28" s="10"/>
+      <c r="D28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C29" s="10"/>
+      <c r="D29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C30" s="10"/>
+      <c r="D30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C31" s="9"/>
+      <c r="D31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C34" s="10"/>
+      <c r="D34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="10"/>
+      <c r="D35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C36" s="10"/>
+      <c r="D36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C37" s="9"/>
+      <c r="D37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/만들고 싶은 게임 기획서와 기타등등/범죄특별반/기획서/범죄특별반 기획서.xlsx
+++ b/만들고 싶은 게임 기획서와 기타등등/범죄특별반/기획서/범죄특별반 기획서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\만들고 싶은 게임 기획서와 기타등등\범죄특별반\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8327C21-415A-4A3E-BB4D-B92DE5E6465D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891770ED-43B8-46BD-A045-0A19BDFA5D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E453CFD3-EC8D-4505-B1A5-7268F8E4BD47}"/>
   </bookViews>
@@ -700,7 +700,7 @@
   <dimension ref="B2:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1028,7 +1028,9 @@
       <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1046,7 +1048,7 @@
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C28" s="10"/>
       <c r="D28" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -1065,7 +1067,7 @@
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C29" s="10"/>
       <c r="D29" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -1082,48 +1084,31 @@
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C30" s="10"/>
-      <c r="D30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="7"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C31" s="9"/>
-      <c r="D31" s="5" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="6"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="6"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1133,51 +1118,29 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C34" s="10"/>
-      <c r="D34" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C35" s="10"/>
-      <c r="D35" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="10"/>
-      <c r="D36" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="9"/>
-      <c r="D37" s="5" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
